--- a/exercises/afleveringer.xlsx
+++ b/exercises/afleveringer.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="52">
   <si>
     <t xml:space="preserve">Afleveret af </t>
   </si>
@@ -63,9 +63,6 @@
     <t>Danni Olsen</t>
   </si>
   <si>
-    <t>Danny Michel Skyum</t>
-  </si>
-  <si>
     <t>http://139.59.147.9/cupcake-1.0-SNAPSHOT/index.jsp</t>
   </si>
   <si>
@@ -93,9 +90,6 @@
     <t xml:space="preserve">Jonas Andersen og Rikke Nielsen </t>
   </si>
   <si>
-    <t>Kais Al-Kaisy</t>
-  </si>
-  <si>
     <t>Lasse Vistrup Rasmussen &amp; Xu Zhen Yang</t>
   </si>
   <si>
@@ -126,9 +120,6 @@
     <t>http://207.154.201.86/webshop-1.0/index.jsp</t>
   </si>
   <si>
-    <t>Oliver Max Løye</t>
-  </si>
-  <si>
     <t>http://207.154.194.224/CupcakeFactory/</t>
   </si>
   <si>
@@ -154,6 +145,33 @@
   </si>
   <si>
     <t>https://github.com/tkristoffersen/cupcake.git</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>Danny Michel Skyum, Peter Sundeved</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>Oliver Max Løye og Kais</t>
+  </si>
+  <si>
+    <t>gy</t>
+  </si>
+  <si>
+    <t>https://github.com/NisseAnd/CupCake</t>
+  </si>
+  <si>
+    <t>https://github.com/TanjaJensen/cupcake.git</t>
+  </si>
+  <si>
+    <t>https://github.com/jonasa64/cupcake</t>
   </si>
 </sst>
 </file>
@@ -219,7 +237,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -228,6 +246,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -530,10 +551,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -543,7 +564,7 @@
     <col min="3" max="3" width="63.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -554,10 +575,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -567,8 +588,17 @@
       <c r="C2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -578,19 +608,37 @@
       <c r="C3" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C4" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -600,8 +648,17 @@
       <c r="C5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -612,172 +669,242 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" t="s">
         <v>15</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>16</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="B8" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="C8" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="5" t="s">
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="B9" t="s">
         <v>21</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="B11" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+      <c r="C11" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" s="5" t="s">
+      <c r="D11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B13" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C13" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>33</v>
-      </c>
-      <c r="B14" t="s">
+      <c r="D13" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C14" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+      <c r="D14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>36</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="B16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="B17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>39</v>
       </c>
-      <c r="B16" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="B18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>40</v>
       </c>
-      <c r="B17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="B19" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="C19" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B19" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="D19" t="s">
         <v>43</v>
       </c>
-      <c r="B20" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>45</v>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C8" r:id="rId1"/>
-    <hyperlink ref="B12" r:id="rId2"/>
-    <hyperlink ref="C12" r:id="rId3"/>
-    <hyperlink ref="B15" r:id="rId4"/>
-    <hyperlink ref="C15" r:id="rId5"/>
-    <hyperlink ref="B20" r:id="rId6"/>
-    <hyperlink ref="C20" r:id="rId7"/>
+    <hyperlink ref="B11" r:id="rId2"/>
+    <hyperlink ref="C11" r:id="rId3"/>
+    <hyperlink ref="B14" r:id="rId4"/>
+    <hyperlink ref="C14" r:id="rId5"/>
+    <hyperlink ref="B19" r:id="rId6"/>
+    <hyperlink ref="C19" r:id="rId7"/>
+    <hyperlink ref="C4" r:id="rId8"/>
+    <hyperlink ref="C17" r:id="rId9"/>
+    <hyperlink ref="C10" r:id="rId10"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId11"/>
 </worksheet>
 </file>
 
